--- a/outputs/SORs/SOR Testing_AMC Motion Control Systems Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Motion Control Systems Division.xlsx
@@ -15,34 +15,33 @@
     <sheet name="Istanbul Turkey" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Khed Taluka India" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Kongegårdsgatan Molndal Sweden" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Kontich Belgium" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="La Chaux-de-Fonds Switzerland" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Littleton Massachusetts" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Main St Radford Virginia" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Marengo Illinois" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Modrice Czech Republic" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nova Milanese, Italy" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Ratingen Germany" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Rock Road (KCS) Radford Virgin" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Rock Road Radford Virginia" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Rosemont Illinois" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SEEPZ-SEZ Mumbai India" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Santa Barbara California" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Seoul South Korea" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Shanghai Minhang District Chin" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="St Barthelemy D'Anjou France" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Suzhou Industrial Park Suzhou " sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Tianjin China" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Vejstrup Denmark" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Vista California" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Shanghai China" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Silvestre Terrazas, Chihuahua " sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="La Chaux-de-Fonds Switzerland" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Littleton Massachusetts" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Main St Radford Virginia" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Marengo Illinois" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Modrice Czech Republic" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nova Milanese, Italy" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Ratingen Germany" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Rock Road (KCS) Radford Virgin" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Rock Road Radford Virginia" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="SEEPZ-SEZ Mumbai India" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Santa Barbara California" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Seoul South Korea" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Shanghai Minhang District Chin" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="St Barthelemy D'Anjou France" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Suzhou Industrial Park Suzhou " sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Tianjin China" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Vejstrup Denmark" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Vista California" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Shanghai China" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Kontich Belgium" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Rosemont Illinois" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -56,7 +55,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -164,9 +163,6 @@
     <t xml:space="preserve">Kongegårdsgatan Molndal Sweden</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontich Belgium</t>
-  </si>
-  <si>
     <t xml:space="preserve">La Chaux-de-Fonds Switzerland</t>
   </si>
   <si>
@@ -192,9 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rock Road Radford Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosemont Illinois</t>
   </si>
   <si>
     <t xml:space="preserve">SEEPZ-SEZ Mumbai India</t>
@@ -227,14 +220,17 @@
     <t xml:space="preserve">Shanghai China</t>
   </si>
   <si>
-    <t xml:space="preserve">Silvestre Terrazas, Chihuahua Mexico Aerospace</t>
+    <t xml:space="preserve">Kontich Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosemont Illinois</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="31">
+  <numFmts count="30">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -265,7 +261,6 @@
     <numFmt numFmtId="192" formatCode="0.0%"/>
     <numFmt numFmtId="193" formatCode="0.0%"/>
     <numFmt numFmtId="194" formatCode="0.0%"/>
-    <numFmt numFmtId="195" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -301,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -333,7 +328,6 @@
     <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1618,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="12" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>0</v>
+        <v>0.0205</v>
       </c>
       <c r="K2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="M2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="12" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="O2" s="12" t="n">
         <v>0</v>
@@ -1642,25 +1636,25 @@
         <v>0</v>
       </c>
       <c r="Q2" s="12" t="n">
-        <v>0</v>
+        <v>0.0235</v>
       </c>
       <c r="R2" s="12" t="n">
-        <v>0</v>
+        <v>0.0231</v>
       </c>
       <c r="S2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="12" t="n">
-        <v>0</v>
+        <v>0.0494</v>
       </c>
       <c r="U2" s="12" t="n">
-        <v>0</v>
+        <v>0.0375</v>
       </c>
       <c r="V2" s="12" t="n">
-        <v>0</v>
+        <v>0.0854</v>
       </c>
       <c r="W2" s="12" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="3">
@@ -1689,22 +1683,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="12" t="n">
-        <v>0</v>
+        <v>0.01836</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>0</v>
+        <v>0.01845</v>
       </c>
       <c r="K3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>0</v>
+        <v>0.00954</v>
       </c>
       <c r="M3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="12" t="n">
-        <v>0</v>
+        <v>0.00954</v>
       </c>
       <c r="O3" s="12" t="n">
         <v>0</v>
@@ -1713,25 +1707,25 @@
         <v>0</v>
       </c>
       <c r="Q3" s="12" t="n">
-        <v>0</v>
+        <v>0.02115</v>
       </c>
       <c r="R3" s="12" t="n">
-        <v>0</v>
+        <v>0.02079</v>
       </c>
       <c r="S3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="12" t="n">
-        <v>0</v>
+        <v>0.04446</v>
       </c>
       <c r="U3" s="12" t="n">
-        <v>0</v>
+        <v>0.03375</v>
       </c>
       <c r="V3" s="12" t="n">
-        <v>0</v>
+        <v>0.07686</v>
       </c>
       <c r="W3" s="12" t="n">
-        <v>0</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="4">
@@ -1754,7 +1748,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0</v>
+        <v>0.0267</v>
       </c>
       <c r="H4" s="12" t="n">
         <v>0</v>
@@ -1763,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0</v>
+        <v>0.0267</v>
       </c>
       <c r="K4" s="12" t="n">
-        <v>0</v>
+        <v>0.0135</v>
       </c>
       <c r="L4" s="12" t="n">
         <v>0</v>
@@ -1803,6 +1797,402 @@
       </c>
       <c r="W4" s="12" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="12" t="n">
+        <v>0.0149</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="I8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12" t="n">
+        <v>0.0184</v>
+      </c>
+      <c r="K8" s="12" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="L8" s="12" t="n">
+        <v>0.0182</v>
+      </c>
+      <c r="M8" s="12" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="N8" s="12" t="n">
+        <v>0.0405</v>
+      </c>
+      <c r="O8" s="12" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="P8" s="12" t="n">
+        <v>0.0188</v>
+      </c>
+      <c r="Q8" s="12" t="n">
+        <v>0.0192</v>
+      </c>
+      <c r="R8" s="12" t="n">
+        <v>0.0452</v>
+      </c>
+      <c r="S8" s="12" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="T8" s="12" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="U8" s="12" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="V8" s="12" t="n">
+        <v>0.0354</v>
+      </c>
+      <c r="W8" s="12" t="n">
+        <v>0.1393</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>0.01341</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>0.00333</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>0.01656</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <v>0.00333</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <v>0.01638</v>
+      </c>
+      <c r="M9" s="12" t="n">
+        <v>0.01683</v>
+      </c>
+      <c r="N9" s="12" t="n">
+        <v>0.03645</v>
+      </c>
+      <c r="O9" s="12" t="n">
+        <v>0.00666</v>
+      </c>
+      <c r="P9" s="12" t="n">
+        <v>0.01692</v>
+      </c>
+      <c r="Q9" s="12" t="n">
+        <v>0.01728</v>
+      </c>
+      <c r="R9" s="12" t="n">
+        <v>0.04068</v>
+      </c>
+      <c r="S9" s="12" t="n">
+        <v>0.00351</v>
+      </c>
+      <c r="T9" s="12" t="n">
+        <v>0.01422</v>
+      </c>
+      <c r="U9" s="12" t="n">
+        <v>0.01431</v>
+      </c>
+      <c r="V9" s="12" t="n">
+        <v>0.03186</v>
+      </c>
+      <c r="W9" s="12" t="n">
+        <v>0.12537</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="I10" s="12" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="J10" s="12" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="K10" s="12" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="L10" s="12" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M10" s="12" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N10" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="12" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="P10" s="12" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q10" s="12" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="R10" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="12" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="T10" s="12" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="U10" s="12" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="V10" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W10" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1916,22 +2306,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="13" t="n">
-        <v>0.0211</v>
+        <v>0</v>
       </c>
       <c r="J2" s="13" t="n">
-        <v>0.0211</v>
+        <v>0</v>
       </c>
       <c r="K2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="13" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="M2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="13" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="O2" s="13" t="n">
         <v>0</v>
@@ -1940,25 +2330,25 @@
         <v>0</v>
       </c>
       <c r="Q2" s="13" t="n">
-        <v>0.0244</v>
+        <v>0</v>
       </c>
       <c r="R2" s="13" t="n">
-        <v>0.0239</v>
+        <v>0</v>
       </c>
       <c r="S2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="13" t="n">
-        <v>0.0513</v>
+        <v>0</v>
       </c>
       <c r="U2" s="13" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="V2" s="13" t="n">
-        <v>0.0886</v>
+        <v>0</v>
       </c>
       <c r="W2" s="13" t="n">
-        <v>0.1376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1987,22 +2377,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="13" t="n">
-        <v>0.01899</v>
+        <v>0</v>
       </c>
       <c r="J3" s="13" t="n">
-        <v>0.01899</v>
+        <v>0</v>
       </c>
       <c r="K3" s="13" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="13" t="n">
-        <v>0.0099</v>
+        <v>0</v>
       </c>
       <c r="M3" s="13" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="13" t="n">
-        <v>0.0099</v>
+        <v>0</v>
       </c>
       <c r="O3" s="13" t="n">
         <v>0</v>
@@ -2011,25 +2401,25 @@
         <v>0</v>
       </c>
       <c r="Q3" s="13" t="n">
-        <v>0.02196</v>
+        <v>0</v>
       </c>
       <c r="R3" s="13" t="n">
-        <v>0.02151</v>
+        <v>0</v>
       </c>
       <c r="S3" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="13" t="n">
-        <v>0.04617</v>
+        <v>0</v>
       </c>
       <c r="U3" s="13" t="n">
-        <v>0.0351</v>
+        <v>0</v>
       </c>
       <c r="V3" s="13" t="n">
-        <v>0.07974</v>
+        <v>0</v>
       </c>
       <c r="W3" s="13" t="n">
-        <v>0.12384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2052,7 +2442,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>0.0267</v>
+        <v>0</v>
       </c>
       <c r="H4" s="13" t="n">
         <v>0</v>
@@ -2061,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="13" t="n">
-        <v>0.0267</v>
+        <v>0</v>
       </c>
       <c r="K4" s="13" t="n">
-        <v>0.0135</v>
+        <v>0</v>
       </c>
       <c r="L4" s="13" t="n">
         <v>0</v>
@@ -2114,40 +2504,64 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="G5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="N5" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="13" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="R5" s="13" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="W5" s="13" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2161,64 +2575,64 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W6" s="13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2232,271 +2646,64 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="13" t="n">
-        <v>0.0149</v>
-      </c>
-      <c r="H8" s="13" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="I8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13" t="n">
-        <v>0.0184</v>
-      </c>
-      <c r="K8" s="13" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="L8" s="13" t="n">
-        <v>0.0182</v>
-      </c>
-      <c r="M8" s="13" t="n">
-        <v>0.0187</v>
-      </c>
-      <c r="N8" s="13" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="O8" s="13" t="n">
-        <v>0.0074</v>
-      </c>
-      <c r="P8" s="13" t="n">
-        <v>0.0188</v>
-      </c>
-      <c r="Q8" s="13" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="R8" s="13" t="n">
-        <v>0.0452</v>
-      </c>
-      <c r="S8" s="13" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="T8" s="13" t="n">
-        <v>0.0158</v>
-      </c>
-      <c r="U8" s="13" t="n">
-        <v>0.0159</v>
-      </c>
-      <c r="V8" s="13" t="n">
-        <v>0.0354</v>
-      </c>
-      <c r="W8" s="13" t="n">
-        <v>0.1393</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="13" t="n">
-        <v>0.01341</v>
-      </c>
-      <c r="H9" s="13" t="n">
-        <v>0.00333</v>
-      </c>
-      <c r="I9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13" t="n">
-        <v>0.01656</v>
-      </c>
-      <c r="K9" s="13" t="n">
-        <v>0.00333</v>
-      </c>
-      <c r="L9" s="13" t="n">
-        <v>0.01638</v>
-      </c>
-      <c r="M9" s="13" t="n">
-        <v>0.01683</v>
-      </c>
-      <c r="N9" s="13" t="n">
-        <v>0.03645</v>
-      </c>
-      <c r="O9" s="13" t="n">
-        <v>0.00666</v>
-      </c>
-      <c r="P9" s="13" t="n">
-        <v>0.01692</v>
-      </c>
-      <c r="Q9" s="13" t="n">
-        <v>0.01728</v>
-      </c>
-      <c r="R9" s="13" t="n">
-        <v>0.04068</v>
-      </c>
-      <c r="S9" s="13" t="n">
-        <v>0.00351</v>
-      </c>
-      <c r="T9" s="13" t="n">
-        <v>0.01422</v>
-      </c>
-      <c r="U9" s="13" t="n">
-        <v>0.01431</v>
-      </c>
-      <c r="V9" s="13" t="n">
-        <v>0.03186</v>
-      </c>
-      <c r="W9" s="13" t="n">
-        <v>0.12537</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <v>0.0145</v>
-      </c>
-      <c r="H10" s="13" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="I10" s="13" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="J10" s="13" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="K10" s="13" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="L10" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M10" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N10" s="13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P10" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q10" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R10" s="13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S10" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T10" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U10" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V10" s="13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W10" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2604,16 +2811,16 @@
         <v>27</v>
       </c>
       <c r="G2" s="14" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="H2" s="14" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="14" t="n">
-        <v>0</v>
+        <v>0.0206</v>
       </c>
       <c r="J2" s="14" t="n">
-        <v>0</v>
+        <v>0.0306</v>
       </c>
       <c r="K2" s="14" t="n">
         <v>0</v>
@@ -2622,13 +2829,13 @@
         <v>0</v>
       </c>
       <c r="M2" s="14" t="n">
-        <v>0</v>
+        <v>0.0103</v>
       </c>
       <c r="N2" s="14" t="n">
-        <v>0</v>
+        <v>0.0103</v>
       </c>
       <c r="O2" s="14" t="n">
-        <v>0</v>
+        <v>0.0104</v>
       </c>
       <c r="P2" s="14" t="n">
         <v>0</v>
@@ -2637,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="R2" s="14" t="n">
-        <v>0</v>
+        <v>0.0107</v>
       </c>
       <c r="S2" s="14" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="T2" s="14" t="n">
         <v>0</v>
@@ -2649,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="14" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
       <c r="W2" s="14" t="n">
-        <v>0</v>
+        <v>0.0634</v>
       </c>
     </row>
     <row r="3">
@@ -2675,16 +2882,16 @@
         <v>28</v>
       </c>
       <c r="G3" s="14" t="n">
-        <v>0</v>
+        <v>0.00909</v>
       </c>
       <c r="H3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="14" t="n">
-        <v>0</v>
+        <v>0.01854</v>
       </c>
       <c r="J3" s="14" t="n">
-        <v>0</v>
+        <v>0.02754</v>
       </c>
       <c r="K3" s="14" t="n">
         <v>0</v>
@@ -2693,13 +2900,13 @@
         <v>0</v>
       </c>
       <c r="M3" s="14" t="n">
-        <v>0</v>
+        <v>0.00927</v>
       </c>
       <c r="N3" s="14" t="n">
-        <v>0</v>
+        <v>0.00927</v>
       </c>
       <c r="O3" s="14" t="n">
-        <v>0</v>
+        <v>0.00936</v>
       </c>
       <c r="P3" s="14" t="n">
         <v>0</v>
@@ -2708,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="R3" s="14" t="n">
-        <v>0</v>
+        <v>0.00963</v>
       </c>
       <c r="S3" s="14" t="n">
-        <v>0</v>
+        <v>0.0099</v>
       </c>
       <c r="T3" s="14" t="n">
         <v>0</v>
@@ -2720,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="14" t="n">
-        <v>0</v>
+        <v>0.00999</v>
       </c>
       <c r="W3" s="14" t="n">
-        <v>0</v>
+        <v>0.05706</v>
       </c>
     </row>
     <row r="4">
@@ -2752,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="14" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
       <c r="J4" s="14" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
       <c r="K4" s="14" t="n">
-        <v>0</v>
+        <v>0.0225</v>
       </c>
       <c r="L4" s="14" t="n">
         <v>0</v>
@@ -2808,64 +3015,42 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" s="14"/>
       <c r="J5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
       <c r="W5" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2879,64 +3064,64 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -2950,64 +3135,273 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="I8" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J8" s="14" t="n">
+        <v>0.0192</v>
+      </c>
+      <c r="K8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="M8" s="14" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="N8" s="14" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="O8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="Q8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="S8" s="14" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="T8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="W8" s="14" t="n">
+        <v>0.0464</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>0.00441</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="J9" s="14" t="n">
+        <v>0.01728</v>
+      </c>
+      <c r="K9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <v>0.00459</v>
+      </c>
+      <c r="M9" s="14" t="n">
+        <v>0.00459</v>
+      </c>
+      <c r="N9" s="14" t="n">
+        <v>0.00909</v>
+      </c>
+      <c r="O9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14" t="n">
+        <v>0.00918</v>
+      </c>
+      <c r="Q9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="14" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="S9" s="14" t="n">
+        <v>0.00504</v>
+      </c>
+      <c r="T9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14" t="n">
+        <v>0.00504</v>
+      </c>
+      <c r="W9" s="14" t="n">
+        <v>0.04176</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="K10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M10" s="14" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N10" s="14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="14" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="P10" s="14" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q10" s="14" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="R10" s="14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="14" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="T10" s="14" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="U10" s="14" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="V10" s="14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W10" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3115,16 +3509,16 @@
         <v>27</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H2" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.0204</v>
+        <v>0</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="K2" s="15" t="n">
         <v>0</v>
@@ -3133,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.0102</v>
+        <v>0</v>
       </c>
       <c r="N2" s="15" t="n">
-        <v>0.0102</v>
+        <v>0</v>
       </c>
       <c r="O2" s="15" t="n">
-        <v>0.0103</v>
+        <v>0</v>
       </c>
       <c r="P2" s="15" t="n">
         <v>0</v>
@@ -3148,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="R2" s="15" t="n">
-        <v>0.0106</v>
+        <v>0</v>
       </c>
       <c r="S2" s="15" t="n">
-        <v>0.0109</v>
+        <v>0</v>
       </c>
       <c r="T2" s="15" t="n">
         <v>0</v>
@@ -3160,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="15" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="W2" s="15" t="n">
-        <v>0.0627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3186,16 +3580,16 @@
         <v>28</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01836</v>
+        <v>0</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.02727</v>
+        <v>0</v>
       </c>
       <c r="K3" s="15" t="n">
         <v>0</v>
@@ -3204,13 +3598,13 @@
         <v>0</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.00918</v>
+        <v>0</v>
       </c>
       <c r="N3" s="15" t="n">
-        <v>0.00918</v>
+        <v>0</v>
       </c>
       <c r="O3" s="15" t="n">
-        <v>0.00927</v>
+        <v>0</v>
       </c>
       <c r="P3" s="15" t="n">
         <v>0</v>
@@ -3219,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="R3" s="15" t="n">
-        <v>0.00954</v>
+        <v>0</v>
       </c>
       <c r="S3" s="15" t="n">
-        <v>0.00981</v>
+        <v>0</v>
       </c>
       <c r="T3" s="15" t="n">
         <v>0</v>
@@ -3231,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="15" t="n">
-        <v>0.0099</v>
+        <v>0</v>
       </c>
       <c r="W3" s="15" t="n">
-        <v>0.05643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3257,19 +3651,19 @@
         <v>29</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.0111</v>
+        <v>0</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.0111</v>
+        <v>0.05</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.0225</v>
+        <v>0</v>
       </c>
       <c r="L4" s="15" t="n">
         <v>0</v>
@@ -3319,42 +3713,64 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="Q5" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="W5" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3368,64 +3784,64 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W6" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3439,273 +3855,64 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="15" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="H8" s="15" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="I8" s="15" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J8" s="15" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="K8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="M8" s="15" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="N8" s="15" t="n">
-        <v>0.0101</v>
-      </c>
-      <c r="O8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="15" t="n">
-        <v>0.0102</v>
-      </c>
-      <c r="Q8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="15" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="S8" s="15" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="T8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="15" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="W8" s="15" t="n">
-        <v>0.0464</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="15" t="n">
-        <v>0.00405</v>
-      </c>
-      <c r="H9" s="15" t="n">
-        <v>0.00441</v>
-      </c>
-      <c r="I9" s="15" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="J9" s="15" t="n">
-        <v>0.01728</v>
-      </c>
-      <c r="K9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15" t="n">
-        <v>0.00459</v>
-      </c>
-      <c r="M9" s="15" t="n">
-        <v>0.00459</v>
-      </c>
-      <c r="N9" s="15" t="n">
-        <v>0.00909</v>
-      </c>
-      <c r="O9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15" t="n">
-        <v>0.00918</v>
-      </c>
-      <c r="Q9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="15" t="n">
-        <v>0.00945</v>
-      </c>
-      <c r="S9" s="15" t="n">
-        <v>0.00504</v>
-      </c>
-      <c r="T9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="15" t="n">
-        <v>0.00504</v>
-      </c>
-      <c r="W9" s="15" t="n">
-        <v>0.04176</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M10" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N10" s="15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P10" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q10" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R10" s="15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S10" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T10" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U10" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V10" s="15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W10" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3819,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="16" t="n">
-        <v>0</v>
+        <v>0.0159</v>
       </c>
       <c r="J2" s="16" t="n">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
       <c r="K2" s="16" t="n">
         <v>0</v>
@@ -3840,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="16" t="n">
-        <v>0</v>
+        <v>0.0299</v>
       </c>
       <c r="Q2" s="16" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="16" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="S2" s="16" t="n">
         <v>0</v>
@@ -3855,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="16" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="V2" s="16" t="n">
-        <v>0</v>
+        <v>0.0163</v>
       </c>
       <c r="W2" s="16" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="3">
@@ -3890,10 +4097,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="16" t="n">
-        <v>0</v>
+        <v>0.01431</v>
       </c>
       <c r="J3" s="16" t="n">
-        <v>0</v>
+        <v>0.01449</v>
       </c>
       <c r="K3" s="16" t="n">
         <v>0</v>
@@ -3911,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="16" t="n">
-        <v>0</v>
+        <v>0.02691</v>
       </c>
       <c r="Q3" s="16" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="16" t="n">
-        <v>0</v>
+        <v>0.02727</v>
       </c>
       <c r="S3" s="16" t="n">
         <v>0</v>
@@ -3926,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="16" t="n">
-        <v>0</v>
+        <v>0.01476</v>
       </c>
       <c r="V3" s="16" t="n">
-        <v>0</v>
+        <v>0.01467</v>
       </c>
       <c r="W3" s="16" t="n">
-        <v>0</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="4">
@@ -3955,19 +4162,19 @@
         <v>29</v>
       </c>
       <c r="G4" s="16" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16" t="n">
-        <v>0</v>
+        <v>0.0167</v>
       </c>
       <c r="I4" s="16" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="16" t="n">
-        <v>0.05</v>
+        <v>0.0168</v>
       </c>
       <c r="K4" s="16" t="n">
-        <v>0</v>
+        <v>0.0169</v>
       </c>
       <c r="L4" s="16" t="n">
         <v>0</v>
@@ -4017,64 +4224,44 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="16"/>
       <c r="P5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="16"/>
       <c r="R5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
       <c r="W5" s="16" t="n">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -4088,64 +4275,64 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -4159,63 +4346,270 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K7" s="16"/>
       <c r="L7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="16" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4330,25 +4724,25 @@
         <v>0</v>
       </c>
       <c r="I2" s="17" t="n">
-        <v>0.0159</v>
+        <v>0</v>
       </c>
       <c r="J2" s="17" t="n">
-        <v>0.0161</v>
+        <v>0</v>
       </c>
       <c r="K2" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="17" t="n">
-        <v>0</v>
+        <v>0.0133</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>0</v>
+        <v>0.0274</v>
       </c>
       <c r="N2" s="17" t="n">
-        <v>0</v>
+        <v>0.0404</v>
       </c>
       <c r="O2" s="17" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="P2" s="17" t="n">
         <v>0.0299</v>
@@ -4357,22 +4751,22 @@
         <v>0</v>
       </c>
       <c r="R2" s="17" t="n">
-        <v>0.0303</v>
+        <v>0.0446</v>
       </c>
       <c r="S2" s="17" t="n">
-        <v>0</v>
+        <v>0.0308</v>
       </c>
       <c r="T2" s="17" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="U2" s="17" t="n">
-        <v>0.0164</v>
+        <v>0.0159</v>
       </c>
       <c r="V2" s="17" t="n">
-        <v>0.0163</v>
+        <v>0.0625</v>
       </c>
       <c r="W2" s="17" t="n">
-        <v>0.063</v>
+        <v>0.1427</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4795,25 @@
         <v>0</v>
       </c>
       <c r="I3" s="17" t="n">
-        <v>0.01431</v>
+        <v>0</v>
       </c>
       <c r="J3" s="17" t="n">
-        <v>0.01449</v>
+        <v>0</v>
       </c>
       <c r="K3" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="17" t="n">
-        <v>0</v>
+        <v>0.01197</v>
       </c>
       <c r="M3" s="17" t="n">
-        <v>0</v>
+        <v>0.02466</v>
       </c>
       <c r="N3" s="17" t="n">
-        <v>0</v>
+        <v>0.03636</v>
       </c>
       <c r="O3" s="17" t="n">
-        <v>0</v>
+        <v>0.01323</v>
       </c>
       <c r="P3" s="17" t="n">
         <v>0.02691</v>
@@ -4428,22 +4822,22 @@
         <v>0</v>
       </c>
       <c r="R3" s="17" t="n">
-        <v>0.02727</v>
+        <v>0.04014</v>
       </c>
       <c r="S3" s="17" t="n">
-        <v>0</v>
+        <v>0.02772</v>
       </c>
       <c r="T3" s="17" t="n">
-        <v>0</v>
+        <v>0.01404</v>
       </c>
       <c r="U3" s="17" t="n">
-        <v>0.01476</v>
+        <v>0.01431</v>
       </c>
       <c r="V3" s="17" t="n">
-        <v>0.01467</v>
+        <v>0.05625</v>
       </c>
       <c r="W3" s="17" t="n">
-        <v>0.0567</v>
+        <v>0.12843</v>
       </c>
     </row>
     <row r="4">
@@ -4466,19 +4860,19 @@
         <v>29</v>
       </c>
       <c r="G4" s="17" t="n">
-        <v>0</v>
+        <v>0.0267</v>
       </c>
       <c r="H4" s="17" t="n">
-        <v>0.0167</v>
+        <v>0.0423</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>0</v>
+        <v>0.0143</v>
       </c>
       <c r="J4" s="17" t="n">
-        <v>0.0168</v>
+        <v>0.0833</v>
       </c>
       <c r="K4" s="17" t="n">
-        <v>0.0169</v>
+        <v>0.0299</v>
       </c>
       <c r="L4" s="17" t="n">
         <v>0</v>
@@ -4544,22 +4938,20 @@
       <c r="J5" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" s="17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="17"/>
-      <c r="P5" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
@@ -4659,14 +5051,16 @@
         <v>29</v>
       </c>
       <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="H7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17"/>
       <c r="J7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="17"/>
+      <c r="K7" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="L7" s="17" t="n">
         <v>1</v>
       </c>
@@ -4718,7 +5112,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4738,39 +5132,19 @@
       <c r="K8" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
       <c r="W8" s="17" t="n">
         <v>0</v>
       </c>
@@ -4789,7 +5163,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4809,111 +5183,20 @@
       <c r="K9" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
       <c r="W9" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5022,55 +5305,55 @@
         <v>27</v>
       </c>
       <c r="G2" s="18" t="n">
-        <v>0</v>
+        <v>0.0192</v>
       </c>
       <c r="H2" s="18" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="18" t="n">
-        <v>0</v>
+        <v>0.0128</v>
       </c>
       <c r="J2" s="18" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="K2" s="18" t="n">
-        <v>0</v>
+        <v>0.0139</v>
       </c>
       <c r="L2" s="18" t="n">
-        <v>0.0114</v>
+        <v>0.0139</v>
       </c>
       <c r="M2" s="18" t="n">
-        <v>0.0233</v>
+        <v>0</v>
       </c>
       <c r="N2" s="18" t="n">
-        <v>0.0344</v>
+        <v>0.0277</v>
       </c>
       <c r="O2" s="18" t="n">
-        <v>0.0123</v>
+        <v>0.0155</v>
       </c>
       <c r="P2" s="18" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="18" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="R2" s="18" t="n">
-        <v>0.0374</v>
+        <v>0.0391</v>
       </c>
       <c r="S2" s="18" t="n">
-        <v>0.0256</v>
+        <v>0.008</v>
       </c>
       <c r="T2" s="18" t="n">
-        <v>0.013</v>
+        <v>0.0163</v>
       </c>
       <c r="U2" s="18" t="n">
-        <v>0.0132</v>
+        <v>0.0163</v>
       </c>
       <c r="V2" s="18" t="n">
-        <v>0.0519</v>
+        <v>0.0404</v>
       </c>
       <c r="W2" s="18" t="n">
-        <v>0.1205</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="3">
@@ -5093,55 +5376,55 @@
         <v>28</v>
       </c>
       <c r="G3" s="18" t="n">
-        <v>0</v>
+        <v>0.01728</v>
       </c>
       <c r="H3" s="18" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="18" t="n">
-        <v>0</v>
+        <v>0.01152</v>
       </c>
       <c r="J3" s="18" t="n">
-        <v>0</v>
+        <v>0.0288</v>
       </c>
       <c r="K3" s="18" t="n">
-        <v>0</v>
+        <v>0.01251</v>
       </c>
       <c r="L3" s="18" t="n">
-        <v>0.01026</v>
+        <v>0.01251</v>
       </c>
       <c r="M3" s="18" t="n">
-        <v>0.02097</v>
+        <v>0</v>
       </c>
       <c r="N3" s="18" t="n">
-        <v>0.03096</v>
+        <v>0.02493</v>
       </c>
       <c r="O3" s="18" t="n">
-        <v>0.01107</v>
+        <v>0.01395</v>
       </c>
       <c r="P3" s="18" t="n">
-        <v>0.0225</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="18" t="n">
-        <v>0</v>
+        <v>0.02142</v>
       </c>
       <c r="R3" s="18" t="n">
-        <v>0.03366</v>
+        <v>0.03519</v>
       </c>
       <c r="S3" s="18" t="n">
-        <v>0.02304</v>
+        <v>0.0072</v>
       </c>
       <c r="T3" s="18" t="n">
-        <v>0.0117</v>
+        <v>0.01467</v>
       </c>
       <c r="U3" s="18" t="n">
-        <v>0.01188</v>
+        <v>0.01467</v>
       </c>
       <c r="V3" s="18" t="n">
-        <v>0.04671</v>
+        <v>0.03636</v>
       </c>
       <c r="W3" s="18" t="n">
-        <v>0.10845</v>
+        <v>0.12384</v>
       </c>
     </row>
     <row r="4">
@@ -5164,55 +5447,55 @@
         <v>29</v>
       </c>
       <c r="G4" s="18" t="n">
-        <v>0.0267</v>
+        <v>0</v>
       </c>
       <c r="H4" s="18" t="n">
-        <v>0.0423</v>
+        <v>0</v>
       </c>
       <c r="I4" s="18" t="n">
-        <v>0.0143</v>
+        <v>0.0093</v>
       </c>
       <c r="J4" s="18" t="n">
-        <v>0.0833</v>
+        <v>0.0093</v>
       </c>
       <c r="K4" s="18" t="n">
-        <v>0.0299</v>
+        <v>0</v>
       </c>
       <c r="L4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5229,7 +5512,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5237,31 +5520,45 @@
       <c r="G5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="K5" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="18" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="N5" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="18"/>
+        <v>0.7143</v>
+      </c>
+      <c r="O5" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="R5" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
+      <c r="T5" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
+      <c r="V5" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="W5" s="18" t="n">
-        <v>0.666666666666667</v>
+        <v>0.842105263157895</v>
       </c>
     </row>
     <row r="6">
@@ -5278,7 +5575,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5349,57 +5646,59 @@
         <v>33</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18"/>
+        <v>0.3333</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="18" t="n">
-        <v>1</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="18"/>
       <c r="L7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Q7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="R7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="S7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="T7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="U7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W7" s="18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -5415,7 +5714,9 @@
       <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="18" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
@@ -5426,29 +5727,49 @@
         <v>0</v>
       </c>
       <c r="I8" s="18" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="J8" s="18" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="K8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+        <v>0.018</v>
+      </c>
+      <c r="L8" s="18" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="M8" s="18" t="n">
+        <v>0.0092</v>
+      </c>
       <c r="N8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
+        <v>0.0545</v>
+      </c>
+      <c r="O8" s="18" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="P8" s="18" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="Q8" s="18" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>0.0671</v>
+      </c>
+      <c r="S8" s="18" t="n">
+        <v>0.0099</v>
+      </c>
+      <c r="T8" s="18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U8" s="18" t="n">
+        <v>0.0204</v>
+      </c>
+      <c r="V8" s="18" t="n">
+        <v>0.0401</v>
+      </c>
       <c r="W8" s="18" t="n">
-        <v>0</v>
+        <v>0.1687</v>
       </c>
     </row>
     <row r="9">
@@ -5464,7 +5785,9 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="18" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
@@ -5475,28 +5798,119 @@
         <v>0</v>
       </c>
       <c r="I9" s="18" t="n">
-        <v>0</v>
+        <v>0.00801</v>
       </c>
       <c r="J9" s="18" t="n">
-        <v>0</v>
+        <v>0.00801</v>
       </c>
       <c r="K9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+        <v>0.0162</v>
+      </c>
+      <c r="L9" s="18" t="n">
+        <v>0.02457</v>
+      </c>
+      <c r="M9" s="18" t="n">
+        <v>0.00828</v>
+      </c>
       <c r="N9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
+        <v>0.04905</v>
+      </c>
+      <c r="O9" s="18" t="n">
+        <v>0.01683</v>
+      </c>
+      <c r="P9" s="18" t="n">
+        <v>0.03492</v>
+      </c>
+      <c r="Q9" s="18" t="n">
+        <v>0.00873</v>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>0.06039</v>
+      </c>
+      <c r="S9" s="18" t="n">
+        <v>0.00891</v>
+      </c>
+      <c r="T9" s="18" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="U9" s="18" t="n">
+        <v>0.01836</v>
+      </c>
+      <c r="V9" s="18" t="n">
+        <v>0.03609</v>
+      </c>
       <c r="W9" s="18" t="n">
+        <v>0.15183</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="H10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="J10" s="18" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="K10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5599,61 +6013,61 @@
         <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="19" t="n">
-        <v>0.0211</v>
+        <v>0</v>
       </c>
       <c r="H2" s="19" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="19" t="n">
-        <v>0.0142</v>
+        <v>0.0625</v>
       </c>
       <c r="J2" s="19" t="n">
-        <v>0.0353</v>
+        <v>0.0599</v>
       </c>
       <c r="K2" s="19" t="n">
-        <v>0.0155</v>
+        <v>0</v>
       </c>
       <c r="L2" s="19" t="n">
-        <v>0.0155</v>
+        <v>0</v>
       </c>
       <c r="M2" s="19" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="19" t="n">
-        <v>0.0309</v>
+        <v>0</v>
       </c>
       <c r="O2" s="19" t="n">
-        <v>0.0172</v>
+        <v>0</v>
       </c>
       <c r="P2" s="19" t="n">
         <v>0</v>
       </c>
       <c r="Q2" s="19" t="n">
-        <v>0.0265</v>
+        <v>0</v>
       </c>
       <c r="R2" s="19" t="n">
-        <v>0.0435</v>
+        <v>0</v>
       </c>
       <c r="S2" s="19" t="n">
-        <v>0.0089</v>
+        <v>0</v>
       </c>
       <c r="T2" s="19" t="n">
-        <v>0.0182</v>
+        <v>0</v>
       </c>
       <c r="U2" s="19" t="n">
-        <v>0.0182</v>
+        <v>0</v>
       </c>
       <c r="V2" s="19" t="n">
-        <v>0.0452</v>
+        <v>0</v>
       </c>
       <c r="W2" s="19" t="n">
-        <v>0.153</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="3">
@@ -5670,61 +6084,61 @@
         <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="19" t="n">
-        <v>0.01899</v>
+        <v>0</v>
       </c>
       <c r="H3" s="19" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="19" t="n">
-        <v>0.01278</v>
+        <v>0.05625</v>
       </c>
       <c r="J3" s="19" t="n">
-        <v>0.03177</v>
+        <v>0.05391</v>
       </c>
       <c r="K3" s="19" t="n">
-        <v>0.01395</v>
+        <v>0</v>
       </c>
       <c r="L3" s="19" t="n">
-        <v>0.01395</v>
+        <v>0</v>
       </c>
       <c r="M3" s="19" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="19" t="n">
-        <v>0.02781</v>
+        <v>0</v>
       </c>
       <c r="O3" s="19" t="n">
-        <v>0.01548</v>
+        <v>0</v>
       </c>
       <c r="P3" s="19" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="19" t="n">
-        <v>0.02385</v>
+        <v>0</v>
       </c>
       <c r="R3" s="19" t="n">
-        <v>0.03915</v>
+        <v>0</v>
       </c>
       <c r="S3" s="19" t="n">
-        <v>0.00801</v>
+        <v>0</v>
       </c>
       <c r="T3" s="19" t="n">
-        <v>0.01638</v>
+        <v>0</v>
       </c>
       <c r="U3" s="19" t="n">
-        <v>0.01638</v>
+        <v>0</v>
       </c>
       <c r="V3" s="19" t="n">
-        <v>0.04068</v>
+        <v>0</v>
       </c>
       <c r="W3" s="19" t="n">
-        <v>0.1377</v>
+        <v>0.05553</v>
       </c>
     </row>
     <row r="4">
@@ -5741,476 +6155,60 @@
         <v>26</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="19" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="19" t="n">
-        <v>0.0093</v>
+        <v>0</v>
       </c>
       <c r="J4" s="19" t="n">
-        <v>0.0093</v>
+        <v>0.303</v>
       </c>
       <c r="K4" s="19" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="19" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="N5" s="19" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="O5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="19" t="n">
-        <v>0.842105263157895</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="I7" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W7" s="19" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="J8" s="19" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="K8" s="19" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="L8" s="19" t="n">
-        <v>0.0273</v>
-      </c>
-      <c r="M8" s="19" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="N8" s="19" t="n">
-        <v>0.0545</v>
-      </c>
-      <c r="O8" s="19" t="n">
-        <v>0.0187</v>
-      </c>
-      <c r="P8" s="19" t="n">
-        <v>0.0388</v>
-      </c>
-      <c r="Q8" s="19" t="n">
-        <v>0.0097</v>
-      </c>
-      <c r="R8" s="19" t="n">
-        <v>0.0671</v>
-      </c>
-      <c r="S8" s="19" t="n">
-        <v>0.0099</v>
-      </c>
-      <c r="T8" s="19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="U8" s="19" t="n">
-        <v>0.0204</v>
-      </c>
-      <c r="V8" s="19" t="n">
-        <v>0.0401</v>
-      </c>
-      <c r="W8" s="19" t="n">
-        <v>0.1687</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19" t="n">
-        <v>0.00801</v>
-      </c>
-      <c r="J9" s="19" t="n">
-        <v>0.00801</v>
-      </c>
-      <c r="K9" s="19" t="n">
-        <v>0.0162</v>
-      </c>
-      <c r="L9" s="19" t="n">
-        <v>0.02457</v>
-      </c>
-      <c r="M9" s="19" t="n">
-        <v>0.00828</v>
-      </c>
-      <c r="N9" s="19" t="n">
-        <v>0.04905</v>
-      </c>
-      <c r="O9" s="19" t="n">
-        <v>0.01683</v>
-      </c>
-      <c r="P9" s="19" t="n">
-        <v>0.03492</v>
-      </c>
-      <c r="Q9" s="19" t="n">
-        <v>0.00873</v>
-      </c>
-      <c r="R9" s="19" t="n">
-        <v>0.06039</v>
-      </c>
-      <c r="S9" s="19" t="n">
-        <v>0.00891</v>
-      </c>
-      <c r="T9" s="19" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="U9" s="19" t="n">
-        <v>0.01836</v>
-      </c>
-      <c r="V9" s="19" t="n">
-        <v>0.03609</v>
-      </c>
-      <c r="W9" s="19" t="n">
-        <v>0.15183</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="19" t="n">
-        <v>0.0292</v>
-      </c>
-      <c r="H10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="J10" s="19" t="n">
-        <v>0.0363</v>
-      </c>
-      <c r="K10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6653,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="20" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="T2" s="20" t="n">
         <v>0</v>
@@ -6662,10 +6660,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="20" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="W2" s="20" t="n">
-        <v>0</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="3">
@@ -6724,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="20" t="n">
-        <v>0</v>
+        <v>0.05004</v>
       </c>
       <c r="T3" s="20" t="n">
         <v>0</v>
@@ -6733,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="20" t="n">
-        <v>0</v>
+        <v>0.05004</v>
       </c>
       <c r="W3" s="20" t="n">
-        <v>0</v>
+        <v>0.04689</v>
       </c>
     </row>
     <row r="4">
@@ -6759,7 +6757,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="20" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="H4" s="20" t="n">
         <v>0</v>
@@ -6768,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="20" t="n">
-        <v>0</v>
+        <v>0.0613</v>
       </c>
       <c r="K4" s="20" t="n">
         <v>0</v>
@@ -6807,6 +6805,329 @@
         <v>0</v>
       </c>
       <c r="W4" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="20" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="20" t="n">
+        <v>0.5882</v>
+      </c>
+      <c r="O7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="20" t="n">
+        <v>0.7143</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="20" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="20" t="n">
+        <v>0.52938</v>
+      </c>
+      <c r="O8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="20" t="n">
+        <v>0.64287</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="20" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6921,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J2" s="21" t="n">
-        <v>0.2128</v>
+        <v>0</v>
       </c>
       <c r="K2" s="21" t="n">
         <v>0</v>
@@ -6963,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="21" t="n">
-        <v>0.2381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6992,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="21" t="n">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="J3" s="21" t="n">
-        <v>0.19152</v>
+        <v>0</v>
       </c>
       <c r="K3" s="21" t="n">
         <v>0</v>
@@ -7034,77 +7355,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="21" t="n">
-        <v>0.21429</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="21" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="21" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="K4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7249,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>0.0556</v>
+        <v>0</v>
       </c>
       <c r="T2" s="22" t="n">
         <v>0</v>
@@ -7258,10 +7508,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>0.0556</v>
+        <v>0</v>
       </c>
       <c r="W2" s="22" t="n">
-        <v>0.0521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7320,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>0.05004</v>
+        <v>0</v>
       </c>
       <c r="T3" s="22" t="n">
         <v>0</v>
@@ -7329,10 +7579,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>0.05004</v>
+        <v>0</v>
       </c>
       <c r="W3" s="22" t="n">
-        <v>0.04689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7355,7 +7605,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="22" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="H4" s="22" t="n">
         <v>0</v>
@@ -7364,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="22" t="n">
-        <v>0.0613</v>
+        <v>0</v>
       </c>
       <c r="K4" s="22" t="n">
         <v>0</v>
@@ -7429,20 +7679,20 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="22" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="S5" s="22" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
+      <c r="V5" s="22" t="n">
+        <v>1</v>
+      </c>
       <c r="W5" s="22" t="n">
         <v>1</v>
       </c>
@@ -7514,219 +7764,6 @@
       </c>
       <c r="W6" s="22" t="n">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="22" t="n">
-        <v>0.5882</v>
-      </c>
-      <c r="O7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="22" t="n">
-        <v>0.7143</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="22" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N8" s="22" t="n">
-        <v>0.52938</v>
-      </c>
-      <c r="O8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="22" t="n">
-        <v>0.64287</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="22" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7827,7 +7864,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7896,7 +7935,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -7949,6 +7990,163 @@
         <v>0</v>
       </c>
       <c r="W3" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="23" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="23" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8250,116 +8448,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -8489,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="25" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
       <c r="P2" s="25" t="n">
         <v>0</v>
@@ -8498,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="25" t="n">
-        <v>0</v>
+        <v>0.0113</v>
       </c>
       <c r="S2" s="25" t="n">
         <v>0</v>
@@ -8513,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="25" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="3">
@@ -8560,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="25" t="n">
-        <v>0</v>
+        <v>0.00999</v>
       </c>
       <c r="P3" s="25" t="n">
         <v>0</v>
@@ -8569,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="25" t="n">
-        <v>0</v>
+        <v>0.01017</v>
       </c>
       <c r="S3" s="25" t="n">
         <v>0</v>
@@ -8584,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="25" t="n">
-        <v>0</v>
+        <v>0.00999</v>
       </c>
     </row>
     <row r="4">
@@ -8669,20 +8757,18 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E5" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
@@ -8691,12 +8777,16 @@
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
+      <c r="S5" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
+      <c r="V5" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="W5" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -8710,34 +8800,344 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E6" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="25" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J6" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="25" t="n">
+        <v>0.5</v>
+      </c>
       <c r="W6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="25" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="I8" s="25" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="J8" s="25" t="n">
+        <v>0.0414</v>
+      </c>
+      <c r="K8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="Q8" s="25" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="R8" s="25" t="n">
+        <v>0.0447</v>
+      </c>
+      <c r="S8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="25" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="U8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="25" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="W8" s="25" t="n">
+        <v>0.1104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="25" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25" t="n">
+        <v>0.01872</v>
+      </c>
+      <c r="I9" s="25" t="n">
+        <v>0.01872</v>
+      </c>
+      <c r="J9" s="25" t="n">
+        <v>0.03726</v>
+      </c>
+      <c r="K9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25" t="n">
+        <v>0.01998</v>
+      </c>
+      <c r="Q9" s="25" t="n">
+        <v>0.02097</v>
+      </c>
+      <c r="R9" s="25" t="n">
+        <v>0.04023</v>
+      </c>
+      <c r="S9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="25" t="n">
+        <v>0.02142</v>
+      </c>
+      <c r="U9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="25" t="n">
+        <v>0.02124</v>
+      </c>
+      <c r="W9" s="25" t="n">
+        <v>0.09936</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="25" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="I10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25" t="n">
+        <v>0.0242</v>
+      </c>
+      <c r="K10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M10" s="25" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N10" s="25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="25" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="P10" s="25" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q10" s="25" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="R10" s="25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="25" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="T10" s="25" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="U10" s="25" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="V10" s="25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W10" s="25" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9167,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="27" t="n">
-        <v>0.0111</v>
+        <v>0</v>
       </c>
       <c r="P2" s="27" t="n">
         <v>0</v>
@@ -9176,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="27" t="n">
-        <v>0.0113</v>
+        <v>0</v>
       </c>
       <c r="S2" s="27" t="n">
         <v>0</v>
@@ -9191,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="27" t="n">
-        <v>0.0111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -9238,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="27" t="n">
-        <v>0.00999</v>
+        <v>0</v>
       </c>
       <c r="P3" s="27" t="n">
         <v>0</v>
@@ -9247,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="27" t="n">
-        <v>0.01017</v>
+        <v>0</v>
       </c>
       <c r="S3" s="27" t="n">
         <v>0</v>
@@ -9262,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="27" t="n">
-        <v>0.00999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -9334,400 +9734,6 @@
       </c>
       <c r="W4" s="27" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="27" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="I8" s="27" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="J8" s="27" t="n">
-        <v>0.0414</v>
-      </c>
-      <c r="K8" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27" t="n">
-        <v>0.0222</v>
-      </c>
-      <c r="Q8" s="27" t="n">
-        <v>0.0233</v>
-      </c>
-      <c r="R8" s="27" t="n">
-        <v>0.0447</v>
-      </c>
-      <c r="S8" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="27" t="n">
-        <v>0.0238</v>
-      </c>
-      <c r="U8" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="27" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="W8" s="27" t="n">
-        <v>0.1104</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27" t="n">
-        <v>0.01872</v>
-      </c>
-      <c r="I9" s="27" t="n">
-        <v>0.01872</v>
-      </c>
-      <c r="J9" s="27" t="n">
-        <v>0.03726</v>
-      </c>
-      <c r="K9" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="27" t="n">
-        <v>0.01998</v>
-      </c>
-      <c r="Q9" s="27" t="n">
-        <v>0.02097</v>
-      </c>
-      <c r="R9" s="27" t="n">
-        <v>0.04023</v>
-      </c>
-      <c r="S9" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="27" t="n">
-        <v>0.02142</v>
-      </c>
-      <c r="U9" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="27" t="n">
-        <v>0.02124</v>
-      </c>
-      <c r="W9" s="27" t="n">
-        <v>0.09936</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27" t="n">
-        <v>0.0244</v>
-      </c>
-      <c r="I10" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="27" t="n">
-        <v>0.0242</v>
-      </c>
-      <c r="K10" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="27" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M10" s="27" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N10" s="27" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="27" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P10" s="27" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q10" s="27" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R10" s="27" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S10" s="27" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T10" s="27" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U10" s="27" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V10" s="27" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W10" s="27" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9834,54 +9840,26 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
       <c r="W2" s="28" t="n">
         <v>0</v>
       </c>
@@ -9905,126 +9883,27 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="28" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
       <c r="W3" s="28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10130,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="29" t="n">
         <v>0</v>
@@ -10181,148 +10060,6 @@
         <v>0</v>
       </c>
       <c r="W2" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10722,275 +10459,61 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+        <v>29</v>
+      </c>
+      <c r="G2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="I2" s="30" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
+      <c r="K2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12373,7 +11896,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -12444,7 +11967,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -12515,7 +12038,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -13429,7 +12952,9 @@
       <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
@@ -13482,7 +13007,9 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Motion Control Systems Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Motion Control Systems Division.xlsx
@@ -1748,7 +1748,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0.0267</v>
+        <v>0.027</v>
       </c>
       <c r="H4" s="12" t="n">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0.0267</v>
+        <v>0.027</v>
       </c>
       <c r="K4" s="12" t="n">
-        <v>0.0135</v>
+        <v>0.0137</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0</v>
+        <v>0.0139</v>
       </c>
       <c r="M4" s="12" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2067,7 +2067,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2138,13 +2138,13 @@
         <v>37</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>0.0145</v>
+        <v>0.0192</v>
       </c>
       <c r="H10" s="12" t="n">
         <v>0.0048</v>
@@ -2153,46 +2153,46 @@
         <v>0.0047</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>0.024</v>
+        <v>0.0287</v>
       </c>
       <c r="K10" s="12" t="n">
         <v>0.0048</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0192</v>
       </c>
       <c r="M10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2507,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2578,7 +2578,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2649,7 +2649,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="14" t="n">
-        <v>0.0111</v>
+        <v>0.011</v>
       </c>
       <c r="J4" s="14" t="n">
-        <v>0.0111</v>
+        <v>0.011</v>
       </c>
       <c r="K4" s="14" t="n">
-        <v>0.0225</v>
+        <v>0.0222</v>
       </c>
       <c r="L4" s="14" t="n">
         <v>0</v>
@@ -3154,9 +3154,7 @@
       <c r="K7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="14"/>
       <c r="M7" s="14" t="n">
         <v>1</v>
       </c>
@@ -3205,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3276,7 +3274,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3347,13 +3345,13 @@
         <v>37</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="14" t="n">
-        <v>0.0056</v>
+        <v>0.0057</v>
       </c>
       <c r="H10" s="14" t="n">
         <v>0</v>
@@ -3368,40 +3366,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +3714,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3787,7 +3785,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3858,7 +3856,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -4414,7 +4412,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4485,7 +4483,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4556,7 +4554,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4860,22 +4858,22 @@
         <v>29</v>
       </c>
       <c r="G4" s="17" t="n">
-        <v>0.0267</v>
+        <v>0.027</v>
       </c>
       <c r="H4" s="17" t="n">
-        <v>0.0423</v>
+        <v>0.0429</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>0.0143</v>
+        <v>0.0145</v>
       </c>
       <c r="J4" s="17" t="n">
-        <v>0.0833</v>
+        <v>0.0845</v>
       </c>
       <c r="K4" s="17" t="n">
         <v>0.0299</v>
       </c>
       <c r="L4" s="17" t="n">
-        <v>0</v>
+        <v>0.0469</v>
       </c>
       <c r="M4" s="17" t="n">
         <v>0</v>
@@ -5061,9 +5059,7 @@
       <c r="K7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="17"/>
       <c r="M7" s="17" t="n">
         <v>1</v>
       </c>
@@ -5112,7 +5108,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5163,7 +5159,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5197,6 +5193,67 @@
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5453,49 +5510,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="18" t="n">
-        <v>0.0093</v>
+        <v>0.0091</v>
       </c>
       <c r="J4" s="18" t="n">
-        <v>0.0093</v>
+        <v>0.0091</v>
       </c>
       <c r="K4" s="18" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0275</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5664,9 +5721,7 @@
         <v>0.6</v>
       </c>
       <c r="K7" s="18"/>
-      <c r="L7" s="18" t="n">
-        <v>0.6</v>
-      </c>
+      <c r="L7" s="18"/>
       <c r="M7" s="18" t="n">
         <v>0.6</v>
       </c>
@@ -5715,7 +5770,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5786,7 +5841,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5857,28 +5912,28 @@
         <v>37</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="18" t="n">
-        <v>0.0292</v>
+        <v>0.0299</v>
       </c>
       <c r="H10" s="18" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="18" t="n">
-        <v>0.0072</v>
+        <v>0.0073</v>
       </c>
       <c r="J10" s="18" t="n">
-        <v>0.0363</v>
+        <v>0.037</v>
       </c>
       <c r="K10" s="18" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="18" t="n">
-        <v>0</v>
+        <v>0.0208</v>
       </c>
       <c r="M10" s="18" t="n">
         <v>0</v>
@@ -6176,40 +6231,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N4" s="19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6932,7 +6987,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -7003,7 +7058,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -7074,7 +7129,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -7620,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="22" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M4" s="22" t="n">
         <v>0</v>
@@ -8078,7 +8133,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -8121,7 +8176,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -8890,9 +8945,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="25"/>
-      <c r="L7" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="25"/>
       <c r="M7" s="25" t="n">
         <v>1</v>
       </c>
@@ -8941,7 +8994,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -9012,7 +9065,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -9083,7 +9136,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -9104,40 +9157,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11783,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="M4" s="7" t="n">
         <v>0</v>
@@ -11845,9 +11898,7 @@
       <c r="K5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="7"/>
       <c r="M5" s="7" t="n">
         <v>1</v>
       </c>
@@ -11896,7 +11947,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -11967,7 +12018,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -12038,7 +12089,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -12421,9 +12472,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="8" t="n">
         <v>1</v>
       </c>
@@ -12705,7 +12754,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="9" t="n">
-        <v>0.2857</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="9" t="n">
         <v>0</v>
@@ -12714,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>0.2222</v>
+        <v>0.2</v>
       </c>
       <c r="K4" s="9" t="n">
         <v>0</v>
@@ -12902,9 +12951,7 @@
       <c r="K7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="9"/>
       <c r="M7" s="9" t="n">
         <v>0</v>
       </c>
@@ -12953,7 +13000,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13008,7 +13055,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>

--- a/outputs/SORs/SOR Testing_AMC Motion Control Systems Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Motion Control Systems Division.xlsx
@@ -1600,7 +1600,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0</v>
+        <v>0.0545</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1671,7 +1671,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0</v>
+        <v>0.0545</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1742,7 +1742,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0</v>
+        <v>0.0545</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1766,37 +1766,37 @@
         <v>0.0139</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0</v>
+        <v>0.0109</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0</v>
+        <v>0.0327</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0</v>
+        <v>0.0109</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0</v>
+        <v>0.0109</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0</v>
+        <v>0.0109</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0</v>
+        <v>0.0327</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0</v>
+        <v>0.0109</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0</v>
+        <v>0.0109</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0</v>
+        <v>0.0109</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0</v>
+        <v>0.0327</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="5">
@@ -1996,7 +1996,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0776</v>
+        <v>0.0526</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2067,7 +2067,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0776</v>
+        <v>0.0526</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2138,7 +2138,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>0.0776</v>
+        <v>0.0526</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2162,37 +2162,37 @@
         <v>0.0192</v>
       </c>
       <c r="M10" s="12" t="n">
-        <v>0</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="N10" s="12" t="n">
-        <v>0</v>
+        <v>0.03155</v>
       </c>
       <c r="O10" s="12" t="n">
-        <v>0</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="P10" s="12" t="n">
-        <v>0</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <v>0</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="R10" s="12" t="n">
-        <v>0</v>
+        <v>0.03155</v>
       </c>
       <c r="S10" s="12" t="n">
-        <v>0</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="T10" s="12" t="n">
-        <v>0</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="U10" s="12" t="n">
-        <v>0</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="V10" s="12" t="n">
-        <v>0</v>
+        <v>0.03155</v>
       </c>
       <c r="W10" s="12" t="n">
-        <v>0</v>
+        <v>0.1262</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2507,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2578,7 +2578,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2649,7 +2649,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2805,7 +2805,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2876,7 +2876,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2947,7 +2947,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2971,37 +2971,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0</v>
+        <v>0.019975</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0</v>
+        <v>0.019975</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0</v>
+        <v>0.00665833333333333</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0</v>
+        <v>0.019975</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="5">
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.0057</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3274,7 +3274,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.0057</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3345,7 +3345,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.0057</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3369,37 +3369,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0</v>
+        <v>0.00114166666666667</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0</v>
+        <v>0.003425</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0</v>
+        <v>0.00114166666666667</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0</v>
+        <v>0.00114166666666667</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0</v>
+        <v>0.00114166666666667</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0</v>
+        <v>0.003425</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0</v>
+        <v>0.00114166666666667</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0</v>
+        <v>0.00114166666666667</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0</v>
+        <v>0.00114166666666667</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0</v>
+        <v>0.003425</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
     </row>
   </sheetData>
@@ -3501,7 +3501,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3572,7 +3572,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3643,7 +3643,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3667,37 +3667,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -3714,7 +3714,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3785,7 +3785,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3856,7 +3856,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -4012,7 +4012,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0</v>
+        <v>0.0338</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4083,7 +4083,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0</v>
+        <v>0.0338</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4154,7 +4154,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0</v>
+        <v>0.0338</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4178,37 +4178,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0</v>
+        <v>0.00675833333333333</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0</v>
+        <v>0.020275</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0</v>
+        <v>0.00675833333333333</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0</v>
+        <v>0.00675833333333333</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0</v>
+        <v>0.00675833333333333</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0</v>
+        <v>0.020275</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0</v>
+        <v>0.00675833333333333</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0</v>
+        <v>0.00675833333333333</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0</v>
+        <v>0.00675833333333333</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0</v>
+        <v>0.020275</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0</v>
+        <v>0.0811</v>
       </c>
     </row>
     <row r="5">
@@ -4412,7 +4412,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4483,7 +4483,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4554,7 +4554,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4710,7 +4710,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="n">
-        <v>0</v>
+        <v>0.1599</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4781,7 +4781,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="17" t="n">
-        <v>0</v>
+        <v>0.1599</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4852,7 +4852,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="17" t="n">
-        <v>0</v>
+        <v>0.1599</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4876,37 +4876,37 @@
         <v>0.0469</v>
       </c>
       <c r="M4" s="17" t="n">
-        <v>0</v>
+        <v>0.0319833333333333</v>
       </c>
       <c r="N4" s="17" t="n">
-        <v>0</v>
+        <v>0.09595</v>
       </c>
       <c r="O4" s="17" t="n">
-        <v>0</v>
+        <v>0.0319833333333333</v>
       </c>
       <c r="P4" s="17" t="n">
-        <v>0</v>
+        <v>0.0319833333333333</v>
       </c>
       <c r="Q4" s="17" t="n">
-        <v>0</v>
+        <v>0.0319833333333333</v>
       </c>
       <c r="R4" s="17" t="n">
-        <v>0</v>
+        <v>0.09595</v>
       </c>
       <c r="S4" s="17" t="n">
-        <v>0</v>
+        <v>0.0319833333333333</v>
       </c>
       <c r="T4" s="17" t="n">
-        <v>0</v>
+        <v>0.0319833333333333</v>
       </c>
       <c r="U4" s="17" t="n">
-        <v>0</v>
+        <v>0.0319833333333333</v>
       </c>
       <c r="V4" s="17" t="n">
-        <v>0</v>
+        <v>0.09595</v>
       </c>
       <c r="W4" s="17" t="n">
-        <v>0</v>
+        <v>0.3838</v>
       </c>
     </row>
     <row r="5">
@@ -5108,7 +5108,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5159,7 +5159,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5210,7 +5210,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="17" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5356,7 +5356,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0</v>
+        <v>0.0363</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5427,7 +5427,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0</v>
+        <v>0.0363</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5498,7 +5498,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0</v>
+        <v>0.0363</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5522,37 +5522,37 @@
         <v>0.0275</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0</v>
+        <v>0.00725833333333333</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0</v>
+        <v>0.021775</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0</v>
+        <v>0.00725833333333333</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0</v>
+        <v>0.00725833333333333</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0</v>
+        <v>0.00725833333333333</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0</v>
+        <v>0.021775</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0</v>
+        <v>0.00725833333333333</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0</v>
+        <v>0.00725833333333333</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0</v>
+        <v>0.00725833333333333</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0</v>
+        <v>0.021775</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="5">
@@ -5770,7 +5770,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.058</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5841,7 +5841,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.058</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5912,7 +5912,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.058</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5936,37 +5936,37 @@
         <v>0.0208</v>
       </c>
       <c r="M10" s="18" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="N10" s="18" t="n">
-        <v>0</v>
+        <v>0.0348</v>
       </c>
       <c r="O10" s="18" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="P10" s="18" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="Q10" s="18" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="R10" s="18" t="n">
-        <v>0</v>
+        <v>0.0348</v>
       </c>
       <c r="S10" s="18" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="T10" s="18" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="U10" s="18" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="V10" s="18" t="n">
-        <v>0</v>
+        <v>0.0348</v>
       </c>
       <c r="W10" s="18" t="n">
-        <v>0</v>
+        <v>0.1392</v>
       </c>
     </row>
   </sheetData>
@@ -6068,7 +6068,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6139,7 +6139,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6210,7 +6210,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6234,37 +6234,37 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="N4" s="19" t="n">
-        <v>0.25</v>
+        <v>0.400025</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0.25</v>
+        <v>0.400025</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0.25</v>
+        <v>0.400025</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>1</v>
+        <v>1.6001</v>
       </c>
     </row>
   </sheetData>
@@ -6664,7 +6664,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0</v>
+        <v>0.0617</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6735,7 +6735,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0</v>
+        <v>0.0617</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6806,7 +6806,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0</v>
+        <v>0.0617</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6830,37 +6830,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0</v>
+        <v>0.037025</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0</v>
+        <v>0.037025</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0</v>
+        <v>0.037025</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0</v>
+        <v>0.1481</v>
       </c>
     </row>
     <row r="5">
@@ -6987,7 +6987,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -7058,7 +7058,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -7129,7 +7129,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -7284,9 +7284,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="21"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7355,9 +7353,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="21"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -7512,7 +7508,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>0</v>
+        <v>0.0485</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7583,7 +7579,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>0</v>
+        <v>0.0485</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7654,7 +7650,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0</v>
+        <v>0.0485</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7678,37 +7674,37 @@
         <v>0.05</v>
       </c>
       <c r="M4" s="22" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="N4" s="22" t="n">
-        <v>0</v>
+        <v>0.0291</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>0</v>
+        <v>0.0291</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0</v>
+        <v>0.0291</v>
       </c>
       <c r="W4" s="22" t="n">
-        <v>0</v>
+        <v>0.1164</v>
       </c>
     </row>
     <row r="5">
@@ -8132,9 +8128,7 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="23" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="23"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -8175,9 +8169,7 @@
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="23" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="23"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -8994,7 +8986,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>0.0776</v>
+        <v>0.0243</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -9065,7 +9057,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="25" t="n">
-        <v>0.0776</v>
+        <v>0.0243</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -9136,7 +9128,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="25" t="n">
-        <v>0.0776</v>
+        <v>0.0243</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -9160,37 +9152,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="25" t="n">
-        <v>0</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="N10" s="25" t="n">
-        <v>0</v>
+        <v>0.014575</v>
       </c>
       <c r="O10" s="25" t="n">
-        <v>0</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="P10" s="25" t="n">
-        <v>0</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="Q10" s="25" t="n">
-        <v>0</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="R10" s="25" t="n">
-        <v>0</v>
+        <v>0.014575</v>
       </c>
       <c r="S10" s="25" t="n">
-        <v>0</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="T10" s="25" t="n">
-        <v>0</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="U10" s="25" t="n">
-        <v>0</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="V10" s="25" t="n">
-        <v>0</v>
+        <v>0.014575</v>
       </c>
       <c r="W10" s="25" t="n">
-        <v>0</v>
+        <v>0.0583</v>
       </c>
     </row>
   </sheetData>
@@ -9887,9 +9879,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="28"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -9930,9 +9920,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="28"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -11673,7 +11661,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11744,7 +11732,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11815,7 +11803,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11839,37 +11827,37 @@
         <v>0.0769</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0</v>
+        <v>0.0375</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0</v>
+        <v>0.1125</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0</v>
+        <v>0.0375</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0</v>
+        <v>0.0375</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0</v>
+        <v>0.0375</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0</v>
+        <v>0.1125</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0</v>
+        <v>0.0375</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0</v>
+        <v>0.0375</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0</v>
+        <v>0.0375</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0</v>
+        <v>0.1125</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -11947,7 +11935,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -12018,7 +12006,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -12089,7 +12077,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -12606,7 +12594,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0</v>
+        <v>0.1471</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12677,7 +12665,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0</v>
+        <v>0.1471</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12748,7 +12736,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0</v>
+        <v>0.1471</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12772,37 +12760,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0</v>
+        <v>0.08825</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0</v>
+        <v>0.08825</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0</v>
+        <v>0.08825</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="5">
@@ -12999,9 +12987,7 @@
       <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="9" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E8" s="9"/>
       <c r="F8" t="s">
         <v>27</v>
       </c>
@@ -13054,9 +13040,7 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="9" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E9" s="9"/>
       <c r="F9" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Motion Control Systems Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Motion Control Systems Division.xlsx
@@ -1600,7 +1600,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.0545</v>
+        <v>0.0553</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1671,7 +1671,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.0545</v>
+        <v>0.0553</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1742,13 +1742,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0545</v>
+        <v>0.0553</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0.027</v>
+        <v>0.0274</v>
       </c>
       <c r="H4" s="12" t="n">
         <v>0</v>
@@ -1757,46 +1757,46 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0.027</v>
+        <v>0.0274</v>
       </c>
       <c r="K4" s="12" t="n">
-        <v>0.0137</v>
+        <v>0.0139</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0.0139</v>
+        <v>0.0141</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.0109</v>
+        <v>0</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.0327</v>
+        <v>0.0279</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0109</v>
+        <v>0.00921666666666667</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0109</v>
+        <v>0.00921666666666667</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0109</v>
+        <v>0.00921666666666667</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.0327</v>
+        <v>0.02765</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0109</v>
+        <v>0.00921666666666667</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0109</v>
+        <v>0.00921666666666667</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0109</v>
+        <v>0.00921666666666667</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.0327</v>
+        <v>0.02765</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.1308</v>
+        <v>0.1106</v>
       </c>
     </row>
     <row r="5">
@@ -1813,7 +1813,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1860,7 +1860,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1931,7 +1931,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1949,37 +1949,37 @@
         <v>1</v>
       </c>
       <c r="M7" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="W7" s="12" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +1996,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0526</v>
+        <v>0.0723</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2067,7 +2067,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0526</v>
+        <v>0.0723</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2138,61 +2138,61 @@
         <v>37</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>0.0526</v>
+        <v>0.0723</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>0.0192</v>
+        <v>0.0193</v>
       </c>
       <c r="H10" s="12" t="n">
         <v>0.0048</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>0.0047</v>
+        <v>0.0048</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>0.0287</v>
+        <v>0.0288</v>
       </c>
       <c r="K10" s="12" t="n">
         <v>0.0048</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>0.0192</v>
+        <v>0.0243</v>
       </c>
       <c r="M10" s="12" t="n">
-        <v>0.0105166666666667</v>
+        <v>0.0146</v>
       </c>
       <c r="N10" s="12" t="n">
-        <v>0.03155</v>
+        <v>0.0435</v>
       </c>
       <c r="O10" s="12" t="n">
-        <v>0.0105166666666667</v>
+        <v>0.01205</v>
       </c>
       <c r="P10" s="12" t="n">
-        <v>0.0105166666666667</v>
+        <v>0.01205</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <v>0.0105166666666667</v>
+        <v>0.01205</v>
       </c>
       <c r="R10" s="12" t="n">
-        <v>0.03155</v>
+        <v>0.03615</v>
       </c>
       <c r="S10" s="12" t="n">
-        <v>0.0105166666666667</v>
+        <v>0.01205</v>
       </c>
       <c r="T10" s="12" t="n">
-        <v>0.0105166666666667</v>
+        <v>0.01205</v>
       </c>
       <c r="U10" s="12" t="n">
-        <v>0.0105166666666667</v>
+        <v>0.01205</v>
       </c>
       <c r="V10" s="12" t="n">
-        <v>0.03155</v>
+        <v>0.03615</v>
       </c>
       <c r="W10" s="12" t="n">
-        <v>0.1262</v>
+        <v>0.1446</v>
       </c>
     </row>
   </sheetData>
@@ -2672,9 +2672,7 @@
       <c r="L7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="13"/>
       <c r="N7" s="13" t="n">
         <v>0</v>
       </c>
@@ -2805,7 +2803,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0333</v>
+        <v>0.0445</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2876,7 +2874,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0333</v>
+        <v>0.0445</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2947,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0333</v>
+        <v>0.0445</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2971,37 +2969,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.0114</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0.019975</v>
+        <v>0.0338</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00741666666666667</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00741666666666667</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00741666666666667</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.019975</v>
+        <v>0.02225</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00741666666666667</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00741666666666667</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.00665833333333333</v>
+        <v>0.00741666666666667</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.019975</v>
+        <v>0.02225</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.0799</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="5">
@@ -3154,10 +3152,10 @@
       <c r="K7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14"/>
       <c r="N7" s="14" t="n">
         <v>1</v>
       </c>
@@ -3369,37 +3367,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0.00114166666666667</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0.003425</v>
+        <v>0</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.00114166666666667</v>
+        <v>0.00095</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.00114166666666667</v>
+        <v>0.00095</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.00114166666666667</v>
+        <v>0.00095</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.003425</v>
+        <v>0.00285</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.00114166666666667</v>
+        <v>0.00095</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.00114166666666667</v>
+        <v>0.00095</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.00114166666666667</v>
+        <v>0.00095</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.003425</v>
+        <v>0.00285</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.0137</v>
+        <v>0.0114</v>
       </c>
     </row>
   </sheetData>
@@ -3667,37 +3665,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.01</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.01</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.01</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.01</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.01</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.01</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -4012,7 +4010,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.0338</v>
+        <v>0.0339</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4083,7 +4081,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.0338</v>
+        <v>0.0339</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4154,7 +4152,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.0338</v>
+        <v>0.0339</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4178,37 +4176,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0.00675833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.020275</v>
+        <v>0.0172</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.00675833333333333</v>
+        <v>0.00565</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.00675833333333333</v>
+        <v>0.00565</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.00675833333333333</v>
+        <v>0.00565</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.020275</v>
+        <v>0.01695</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.00675833333333333</v>
+        <v>0.00565</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.00675833333333333</v>
+        <v>0.00565</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.00675833333333333</v>
+        <v>0.00565</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.020275</v>
+        <v>0.01695</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0.0811</v>
+        <v>0.0678</v>
       </c>
     </row>
     <row r="5">
@@ -4364,9 +4362,7 @@
       <c r="L7" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="16"/>
       <c r="N7" s="16" t="n">
         <v>1</v>
       </c>
@@ -4710,7 +4706,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="n">
-        <v>0.1599</v>
+        <v>0.177</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4781,7 +4777,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="17" t="n">
-        <v>0.1599</v>
+        <v>0.177</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4852,7 +4848,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="17" t="n">
-        <v>0.1599</v>
+        <v>0.177</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4876,37 +4872,37 @@
         <v>0.0469</v>
       </c>
       <c r="M4" s="17" t="n">
-        <v>0.0319833333333333</v>
+        <v>0.0159</v>
       </c>
       <c r="N4" s="17" t="n">
-        <v>0.09595</v>
+        <v>0.0927</v>
       </c>
       <c r="O4" s="17" t="n">
-        <v>0.0319833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="P4" s="17" t="n">
-        <v>0.0319833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="Q4" s="17" t="n">
-        <v>0.0319833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="R4" s="17" t="n">
-        <v>0.09595</v>
+        <v>0.0885</v>
       </c>
       <c r="S4" s="17" t="n">
-        <v>0.0319833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="T4" s="17" t="n">
-        <v>0.0319833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="U4" s="17" t="n">
-        <v>0.0319833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="V4" s="17" t="n">
-        <v>0.09595</v>
+        <v>0.0885</v>
       </c>
       <c r="W4" s="17" t="n">
-        <v>0.3838</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="5">
@@ -5356,7 +5352,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0.0363</v>
+        <v>0.0555</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5427,7 +5423,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0.0363</v>
+        <v>0.0555</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5498,7 +5494,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0.0363</v>
+        <v>0.0555</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5510,49 +5506,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="18" t="n">
-        <v>0.0091</v>
+        <v>0.0093</v>
       </c>
       <c r="J4" s="18" t="n">
-        <v>0.0091</v>
+        <v>0.0093</v>
       </c>
       <c r="K4" s="18" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="18" t="n">
-        <v>0.0275</v>
+        <v>0.028</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0.00725833333333333</v>
+        <v>0.0185</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0.021775</v>
+        <v>0.0462</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0.00725833333333333</v>
+        <v>0.00925</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0.00725833333333333</v>
+        <v>0.00925</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0.00725833333333333</v>
+        <v>0.00925</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0.021775</v>
+        <v>0.02775</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0.00725833333333333</v>
+        <v>0.00925</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0.00725833333333333</v>
+        <v>0.00925</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0.00725833333333333</v>
+        <v>0.00925</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0.021775</v>
+        <v>0.02775</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0.0871</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="5">
@@ -5569,7 +5565,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5632,7 +5628,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5703,7 +5699,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -5723,37 +5719,37 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N7" s="18" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O7" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="P7" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="Q7" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="R7" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="S7" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="T7" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="U7" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="V7" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="W7" s="18" t="n">
-        <v>0.6</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="8">
@@ -5770,7 +5766,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.058</v>
+        <v>0.0698</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5841,7 +5837,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.058</v>
+        <v>0.0698</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5912,61 +5908,61 @@
         <v>37</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>0.058</v>
+        <v>0.0698</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="18" t="n">
-        <v>0.0299</v>
+        <v>0.029</v>
       </c>
       <c r="H10" s="18" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="18" t="n">
-        <v>0.0073</v>
+        <v>0.0071</v>
       </c>
       <c r="J10" s="18" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="K10" s="18" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="18" t="n">
-        <v>0.0208</v>
+        <v>0.0203</v>
       </c>
       <c r="M10" s="18" t="n">
-        <v>0.0116</v>
+        <v>0.0133</v>
       </c>
       <c r="N10" s="18" t="n">
-        <v>0.0348</v>
+        <v>0.0339</v>
       </c>
       <c r="O10" s="18" t="n">
-        <v>0.0116</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="P10" s="18" t="n">
-        <v>0.0116</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="Q10" s="18" t="n">
-        <v>0.0116</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="R10" s="18" t="n">
-        <v>0.0348</v>
+        <v>0.0349</v>
       </c>
       <c r="S10" s="18" t="n">
-        <v>0.0116</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="T10" s="18" t="n">
-        <v>0.0116</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="U10" s="18" t="n">
-        <v>0.0116</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="V10" s="18" t="n">
-        <v>0.0348</v>
+        <v>0.0349</v>
       </c>
       <c r="W10" s="18" t="n">
-        <v>0.1392</v>
+        <v>0.1396</v>
       </c>
     </row>
   </sheetData>
@@ -6068,7 +6064,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6139,7 +6135,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6210,7 +6206,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6234,37 +6230,37 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="19" t="n">
-        <v>0.133341666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="19" t="n">
-        <v>0.400025</v>
+        <v>0.4348</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0.133341666666667</v>
+        <v>0.11905</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0.133341666666667</v>
+        <v>0.11905</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0.133341666666667</v>
+        <v>0.11905</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0.400025</v>
+        <v>0.35715</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0.133341666666667</v>
+        <v>0.11905</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0.133341666666667</v>
+        <v>0.11905</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0.133341666666667</v>
+        <v>0.11905</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0.400025</v>
+        <v>0.35715</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>1.6001</v>
+        <v>1.4286</v>
       </c>
     </row>
   </sheetData>
@@ -6664,7 +6660,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0.0617</v>
+        <v>0.125</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6735,7 +6731,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0.0617</v>
+        <v>0.125</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6806,7 +6802,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0.0617</v>
+        <v>0.125</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6830,37 +6826,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0667</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0.037025</v>
+        <v>0.0637</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0.037025</v>
+        <v>0.0625</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0.037025</v>
+        <v>0.0625</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0.1481</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -7508,7 +7504,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>0.0485</v>
+        <v>0.0493</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7579,7 +7575,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>0.0485</v>
+        <v>0.0493</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7650,7 +7646,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0.0485</v>
+        <v>0.0493</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7674,37 +7670,37 @@
         <v>0.05</v>
       </c>
       <c r="M4" s="22" t="n">
-        <v>0.0097</v>
+        <v>0</v>
       </c>
       <c r="N4" s="22" t="n">
-        <v>0.0291</v>
+        <v>0.0508</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>0.0097</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>0.0097</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>0.0097</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>0.0291</v>
+        <v>0.02465</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>0.0097</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>0.0097</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>0.0097</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0.0291</v>
+        <v>0.02465</v>
       </c>
       <c r="W4" s="22" t="n">
-        <v>0.1164</v>
+        <v>0.0986</v>
       </c>
     </row>
     <row r="5">
@@ -8938,12 +8934,8 @@
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
-      <c r="M7" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
       <c r="O7" s="25" t="n">
         <v>1</v>
       </c>
@@ -9152,37 +9144,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="25" t="n">
-        <v>0.00485833333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="25" t="n">
-        <v>0.014575</v>
+        <v>0</v>
       </c>
       <c r="O10" s="25" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00405</v>
       </c>
       <c r="P10" s="25" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00405</v>
       </c>
       <c r="Q10" s="25" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00405</v>
       </c>
       <c r="R10" s="25" t="n">
-        <v>0.014575</v>
+        <v>0.01215</v>
       </c>
       <c r="S10" s="25" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00405</v>
       </c>
       <c r="T10" s="25" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00405</v>
       </c>
       <c r="U10" s="25" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00405</v>
       </c>
       <c r="V10" s="25" t="n">
-        <v>0.014575</v>
+        <v>0.01215</v>
       </c>
       <c r="W10" s="25" t="n">
-        <v>0.0583</v>
+        <v>0.0486</v>
       </c>
     </row>
   </sheetData>
@@ -11661,7 +11653,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.1875</v>
+        <v>0.3268</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11732,7 +11724,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.1875</v>
+        <v>0.3268</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11803,7 +11795,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.1875</v>
+        <v>0.3268</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11827,37 +11819,37 @@
         <v>0.0769</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0375</v>
+        <v>0.1667</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.1125</v>
+        <v>0.2308</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0375</v>
+        <v>0.0544666666666667</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0375</v>
+        <v>0.0544666666666667</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0375</v>
+        <v>0.0544666666666667</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.1125</v>
+        <v>0.1634</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0375</v>
+        <v>0.0544666666666667</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0375</v>
+        <v>0.0544666666666667</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0375</v>
+        <v>0.0544666666666667</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.1125</v>
+        <v>0.1634</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.45</v>
+        <v>0.6536</v>
       </c>
     </row>
     <row r="5">
@@ -11887,9 +11879,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="7"/>
       <c r="N5" s="7" t="n">
         <v>1</v>
       </c>
@@ -12461,12 +12451,8 @@
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="8" t="n">
         <v>1</v>
       </c>
@@ -12594,7 +12580,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.1471</v>
+        <v>0.146</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12665,7 +12651,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.1471</v>
+        <v>0.146</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12736,13 +12722,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.1471</v>
+        <v>0.146</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="9" t="n">
-        <v>0.25</v>
+        <v>0.2857</v>
       </c>
       <c r="H4" s="9" t="n">
         <v>0</v>
@@ -12751,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>0.2</v>
+        <v>0.2222</v>
       </c>
       <c r="K4" s="9" t="n">
         <v>0</v>
@@ -12760,37 +12746,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.0294166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.08825</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0243333333333333</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0243333333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0243333333333333</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.08825</v>
+        <v>0.073</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0243333333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0243333333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0243333333333333</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.08825</v>
+        <v>0.073</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0.353</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="5">
@@ -12940,9 +12926,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="9"/>
-      <c r="M7" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="9"/>
       <c r="N7" s="9" t="n">
         <v>0</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Motion Control Systems Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Motion Control Systems Division.xlsx
@@ -1600,7 +1600,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.0553</v>
+        <v>0.081</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1671,7 +1671,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.0553</v>
+        <v>0.081</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1742,61 +1742,61 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0553</v>
+        <v>0.081</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="12" t="n">
+        <v>0.0267</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>0.0267</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>0.0137</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="n">
+        <v>0.0271</v>
+      </c>
+      <c r="O4" s="12" t="n">
         <v>0.0274</v>
       </c>
-      <c r="H4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>0.0274</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <v>0.0139</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>0.0141</v>
-      </c>
-      <c r="M4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="n">
-        <v>0.0279</v>
-      </c>
-      <c r="O4" s="12" t="n">
-        <v>0.00921666666666667</v>
-      </c>
       <c r="P4" s="12" t="n">
-        <v>0.00921666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.00921666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.02765</v>
+        <v>0</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.00921666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.00921666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.00921666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.02765</v>
+        <v>0</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.1106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1954,9 +1954,7 @@
       <c r="N7" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="12" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="O7" s="12"/>
       <c r="P7" s="12" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -1996,7 +1994,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0723</v>
+        <v>0.0733</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2067,7 +2065,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0723</v>
+        <v>0.0733</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2138,61 +2136,61 @@
         <v>37</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>0.0723</v>
+        <v>0.0733</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>0.0193</v>
+        <v>0.0196</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="I10" s="12" t="n">
         <v>0.0048</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>0.0288</v>
+        <v>0.0293</v>
       </c>
       <c r="K10" s="12" t="n">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>0.0243</v>
+        <v>0.0246</v>
       </c>
       <c r="M10" s="12" t="n">
-        <v>0.0146</v>
+        <v>0.0148</v>
       </c>
       <c r="N10" s="12" t="n">
-        <v>0.0435</v>
+        <v>0.0441</v>
       </c>
       <c r="O10" s="12" t="n">
-        <v>0.01205</v>
+        <v>0</v>
       </c>
       <c r="P10" s="12" t="n">
-        <v>0.01205</v>
+        <v>0.010475</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <v>0.01205</v>
+        <v>0.010475</v>
       </c>
       <c r="R10" s="12" t="n">
-        <v>0.03615</v>
+        <v>0.031425</v>
       </c>
       <c r="S10" s="12" t="n">
-        <v>0.01205</v>
+        <v>0.010475</v>
       </c>
       <c r="T10" s="12" t="n">
-        <v>0.01205</v>
+        <v>0.010475</v>
       </c>
       <c r="U10" s="12" t="n">
-        <v>0.01205</v>
+        <v>0.010475</v>
       </c>
       <c r="V10" s="12" t="n">
-        <v>0.03615</v>
+        <v>0.031425</v>
       </c>
       <c r="W10" s="12" t="n">
-        <v>0.1446</v>
+        <v>0.1257</v>
       </c>
     </row>
   </sheetData>
@@ -2676,9 +2674,7 @@
       <c r="N7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="13"/>
       <c r="P7" s="13" t="n">
         <v>0</v>
       </c>
@@ -2803,7 +2799,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0445</v>
+        <v>0.0446</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2874,7 +2870,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0445</v>
+        <v>0.0446</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2945,7 +2941,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0445</v>
+        <v>0.0446</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2975,31 +2971,31 @@
         <v>0.0338</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.00741666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.00741666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.00741666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.02225</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.00741666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.00741666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.00741666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.02225</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3159,9 +3155,7 @@
       <c r="N7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="14"/>
       <c r="P7" s="14" t="n">
         <v>1</v>
       </c>
@@ -3201,7 +3195,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0057</v>
+        <v>0.0114</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3272,7 +3266,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0057</v>
+        <v>0.0114</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3343,7 +3337,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0057</v>
+        <v>0.0114</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3373,31 +3367,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.00095</v>
+        <v>0.0057</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.00095</v>
+        <v>0.001625</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.00095</v>
+        <v>0.001625</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.00285</v>
+        <v>0.004875</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.00095</v>
+        <v>0.001625</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.00095</v>
+        <v>0.001625</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.00095</v>
+        <v>0.001625</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.00285</v>
+        <v>0.004875</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.0114</v>
+        <v>0.0195</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3493,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3570,7 +3564,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3641,7 +3635,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3671,31 +3665,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.00833333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.00833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.00833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.00833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.00833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.00833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4010,7 +4004,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.0339</v>
+        <v>0.0338</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4081,7 +4075,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.0339</v>
+        <v>0.0338</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4152,7 +4146,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.0339</v>
+        <v>0.0338</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4182,31 +4176,31 @@
         <v>0.0172</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.01695</v>
+        <v>0</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.01695</v>
+        <v>0</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0.0678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4706,7 +4700,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="n">
-        <v>0.177</v>
+        <v>0.1754</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4777,7 +4771,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="17" t="n">
-        <v>0.177</v>
+        <v>0.1754</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4848,7 +4842,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="17" t="n">
-        <v>0.177</v>
+        <v>0.1754</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4866,43 +4860,43 @@
         <v>0.0845</v>
       </c>
       <c r="K4" s="17" t="n">
-        <v>0.0299</v>
+        <v>0.029</v>
       </c>
       <c r="L4" s="17" t="n">
-        <v>0.0469</v>
+        <v>0.0455</v>
       </c>
       <c r="M4" s="17" t="n">
-        <v>0.0159</v>
+        <v>0.0152</v>
       </c>
       <c r="N4" s="17" t="n">
-        <v>0.0927</v>
+        <v>0.0896</v>
       </c>
       <c r="O4" s="17" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="P4" s="17" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="17" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="R4" s="17" t="n">
-        <v>0.0885</v>
+        <v>0</v>
       </c>
       <c r="S4" s="17" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="T4" s="17" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="U4" s="17" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="V4" s="17" t="n">
-        <v>0.0885</v>
+        <v>0</v>
       </c>
       <c r="W4" s="17" t="n">
-        <v>0.354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5062,9 +5056,7 @@
       <c r="N7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="17"/>
       <c r="P7" s="17" t="n">
         <v>1</v>
       </c>
@@ -5352,7 +5344,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0.0555</v>
+        <v>0.0612</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5423,7 +5415,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0.0555</v>
+        <v>0.0612</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5494,7 +5486,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0.0555</v>
+        <v>0.0612</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5506,49 +5498,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="18" t="n">
-        <v>0.0093</v>
+        <v>0.0087</v>
       </c>
       <c r="J4" s="18" t="n">
-        <v>0.0093</v>
+        <v>0.0087</v>
       </c>
       <c r="K4" s="18" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="18" t="n">
-        <v>0.028</v>
+        <v>0.0268</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0.0185</v>
+        <v>0.0268</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0.0462</v>
+        <v>0.0531</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0.00925</v>
+        <v>0</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0.00925</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0.00925</v>
+        <v>0</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0.02775</v>
+        <v>0</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0.00925</v>
+        <v>0</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0.00925</v>
+        <v>0</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0.00925</v>
+        <v>0</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0.02775</v>
+        <v>0</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5565,7 +5557,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5628,7 +5620,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5699,7 +5691,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -5725,31 +5717,31 @@
         <v>1</v>
       </c>
       <c r="O7" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="P7" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="Q7" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="R7" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="S7" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="T7" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="U7" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="V7" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="W7" s="18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
     </row>
     <row r="8">
@@ -5766,7 +5758,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0698</v>
+        <v>0.0861</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5837,7 +5829,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.0698</v>
+        <v>0.0861</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5908,61 +5900,61 @@
         <v>37</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>0.0698</v>
+        <v>0.0861</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="18" t="n">
-        <v>0.029</v>
+        <v>0.0301</v>
       </c>
       <c r="H10" s="18" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="18" t="n">
-        <v>0.0071</v>
+        <v>0.0074</v>
       </c>
       <c r="J10" s="18" t="n">
-        <v>0.036</v>
+        <v>0.0373</v>
       </c>
       <c r="K10" s="18" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="18" t="n">
-        <v>0.0203</v>
+        <v>0.021</v>
       </c>
       <c r="M10" s="18" t="n">
-        <v>0.0133</v>
+        <v>0.014</v>
       </c>
       <c r="N10" s="18" t="n">
-        <v>0.0339</v>
+        <v>0.0352</v>
       </c>
       <c r="O10" s="18" t="n">
-        <v>0.0116333333333333</v>
+        <v>0.0135</v>
       </c>
       <c r="P10" s="18" t="n">
-        <v>0.0116333333333333</v>
+        <v>0.0123</v>
       </c>
       <c r="Q10" s="18" t="n">
-        <v>0.0116333333333333</v>
+        <v>0.0123</v>
       </c>
       <c r="R10" s="18" t="n">
-        <v>0.0349</v>
+        <v>0.0369</v>
       </c>
       <c r="S10" s="18" t="n">
-        <v>0.0116333333333333</v>
+        <v>0.0123</v>
       </c>
       <c r="T10" s="18" t="n">
-        <v>0.0116333333333333</v>
+        <v>0.0123</v>
       </c>
       <c r="U10" s="18" t="n">
-        <v>0.0116333333333333</v>
+        <v>0.0123</v>
       </c>
       <c r="V10" s="18" t="n">
-        <v>0.0349</v>
+        <v>0.0369</v>
       </c>
       <c r="W10" s="18" t="n">
-        <v>0.1396</v>
+        <v>0.1476</v>
       </c>
     </row>
   </sheetData>
@@ -6064,7 +6056,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>0.7143</v>
+        <v>0.7407</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6135,7 +6127,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>0.7143</v>
+        <v>0.7407</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6206,7 +6198,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>0.7143</v>
+        <v>0.7407</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6236,31 +6228,31 @@
         <v>0.4348</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0.11905</v>
+        <v>0</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0.11905</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0.11905</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0.35715</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0.11905</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0.11905</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0.11905</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0.35715</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>1.4286</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6660,7 +6652,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0.125</v>
+        <v>0.1258</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6731,7 +6723,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0.125</v>
+        <v>0.1258</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6802,7 +6794,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0.125</v>
+        <v>0.1258</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6832,31 +6824,31 @@
         <v>0.0637</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0.0208333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0.0208333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0.0208333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0.0208333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0.0208333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0.0208333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7676,31 +7668,31 @@
         <v>0.0508</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>0.02465</v>
+        <v>0</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0.02465</v>
+        <v>0</v>
       </c>
       <c r="W4" s="22" t="n">
-        <v>0.0986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8590,7 +8582,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0</v>
+        <v>0.0113</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8661,7 +8653,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0</v>
+        <v>0.0113</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8732,7 +8724,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>0</v>
+        <v>0.0113</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8762,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="25" t="n">
-        <v>0</v>
+        <v>0.0114</v>
       </c>
       <c r="P4" s="25" t="n">
         <v>0</v>
@@ -8936,9 +8928,7 @@
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
-      <c r="O7" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="25"/>
       <c r="P7" s="25" t="n">
         <v>1</v>
       </c>
@@ -8978,7 +8968,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>0.0243</v>
+        <v>0.0249</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -9049,7 +9039,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="25" t="n">
-        <v>0.0243</v>
+        <v>0.0249</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -9120,7 +9110,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="25" t="n">
-        <v>0.0243</v>
+        <v>0.0249</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -9129,13 +9119,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="25" t="n">
-        <v>0.0244</v>
+        <v>0.025</v>
       </c>
       <c r="I10" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="25" t="n">
-        <v>0.0242</v>
+        <v>0.0248</v>
       </c>
       <c r="K10" s="25" t="n">
         <v>0</v>
@@ -9150,31 +9140,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="25" t="n">
-        <v>0.00405</v>
+        <v>0</v>
       </c>
       <c r="P10" s="25" t="n">
-        <v>0.00405</v>
+        <v>0.00355833333333333</v>
       </c>
       <c r="Q10" s="25" t="n">
-        <v>0.00405</v>
+        <v>0.00355833333333333</v>
       </c>
       <c r="R10" s="25" t="n">
-        <v>0.01215</v>
+        <v>0.010675</v>
       </c>
       <c r="S10" s="25" t="n">
-        <v>0.00405</v>
+        <v>0.00355833333333333</v>
       </c>
       <c r="T10" s="25" t="n">
-        <v>0.00405</v>
+        <v>0.00355833333333333</v>
       </c>
       <c r="U10" s="25" t="n">
-        <v>0.00405</v>
+        <v>0.00355833333333333</v>
       </c>
       <c r="V10" s="25" t="n">
-        <v>0.01215</v>
+        <v>0.010675</v>
       </c>
       <c r="W10" s="25" t="n">
-        <v>0.0486</v>
+        <v>0.0427</v>
       </c>
     </row>
   </sheetData>
@@ -11653,7 +11643,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.3268</v>
+        <v>0.4167</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11724,7 +11714,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.3268</v>
+        <v>0.4167</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11795,7 +11785,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.3268</v>
+        <v>0.4167</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11810,7 +11800,7 @@
         <v>0.0714</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.113</v>
+        <v>0.1156</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>0</v>
@@ -11825,31 +11815,31 @@
         <v>0.2308</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0544666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0544666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0544666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.1634</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0544666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0544666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0544666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.1634</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.6536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11883,9 +11873,7 @@
       <c r="N5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="7"/>
       <c r="P5" s="7" t="n">
         <v>1</v>
       </c>
@@ -12453,9 +12441,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="8"/>
       <c r="P5" s="8" t="n">
         <v>1</v>
       </c>
@@ -12580,7 +12566,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.146</v>
+        <v>0.1389</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12651,7 +12637,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.146</v>
+        <v>0.1389</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12722,7 +12708,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.146</v>
+        <v>0.1389</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12752,31 +12738,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0243333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0243333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.0243333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0243333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0243333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.0243333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0.292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12930,9 +12916,7 @@
       <c r="N7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="9"/>
       <c r="P7" s="9" t="n">
         <v>0</v>
       </c>
